--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.050421.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.050421.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2485,12 +2485,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3131,12 +3131,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3359,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4271,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5301,12 +5301,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5529,12 +5529,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5681,12 +5681,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5947,12 +5947,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5985,12 +5985,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6099,12 +6099,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6327,12 +6327,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6669,12 +6669,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7163,12 +7163,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7277,12 +7277,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7471,12 +7471,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7699,12 +7699,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7855,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8311,12 +8311,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8353,12 +8353,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8391,12 +8391,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8585,12 +8585,12 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8703,12 +8703,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8855,12 +8855,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9657,12 +9657,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9695,12 +9695,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9771,12 +9771,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10075,12 +10075,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10113,12 +10113,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10341,12 +10341,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10569,12 +10569,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10911,12 +10911,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10949,12 +10949,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11025,12 +11025,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11257,12 +11257,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11795,12 +11795,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11833,12 +11833,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11871,12 +11871,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11947,12 +11947,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11985,12 +11985,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12365,12 +12365,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12403,12 +12403,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12479,12 +12479,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12517,12 +12517,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12593,12 +12593,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12631,12 +12631,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12973,12 +12973,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13049,12 +13049,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13125,12 +13125,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13315,12 +13315,12 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13353,12 +13353,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13619,12 +13619,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14045,12 +14045,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14235,12 +14235,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14273,12 +14273,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14505,12 +14505,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14543,12 +14543,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14581,12 +14581,12 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14695,12 +14695,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14733,12 +14733,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14809,12 +14809,12 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15341,12 +15341,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16219,12 +16219,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16333,12 +16333,12 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16371,12 +16371,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16637,12 +16637,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16827,12 +16827,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16903,12 +16903,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17169,12 +17169,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17245,12 +17245,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17815,12 +17815,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17967,12 +17967,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18157,12 +18157,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18535,12 +18535,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18573,12 +18573,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18687,12 +18687,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18725,12 +18725,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18801,12 +18801,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
